--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -980,9 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO10" sqref="AO10"/>
+      <selection pane="topRight" activeCell="AN75" sqref="AN75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1121,7 +1121,7 @@
         <v>43045.423761574071</v>
       </c>
       <c r="AN1" s="15">
-        <v>43048.448888888888</v>
+        <v>43048.667488425926</v>
       </c>
       <c r="AO1" s="15"/>
       <c r="AP1" s="15"/>
@@ -3998,8 +3998,8 @@
       <c r="AM28" s="19">
         <v>400</v>
       </c>
-      <c r="AN28" s="19">
-        <v>400</v>
+      <c r="AN28" s="55">
+        <v>401</v>
       </c>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
@@ -4568,7 +4568,7 @@
       <c r="AM34" s="19">
         <v>901</v>
       </c>
-      <c r="AN34" s="55">
+      <c r="AN34" s="19">
         <v>902</v>
       </c>
       <c r="AO34" s="8"/>
@@ -7420,7 +7420,9 @@
       <c r="AK74" s="37"/>
       <c r="AL74" s="37"/>
       <c r="AM74" s="37"/>
-      <c r="AN74" s="8"/>
+      <c r="AN74" s="19">
+        <v>2</v>
+      </c>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,7 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,23 +732,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -785,23 +767,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,9 +945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN75" sqref="AN75"/>
+      <selection pane="topRight" activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2133,7 +2098,7 @@
       <c r="AM10" s="18">
         <v>602</v>
       </c>
-      <c r="AN10" s="57">
+      <c r="AN10" s="18">
         <v>603</v>
       </c>
       <c r="AO10" s="4"/>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -732,6 +732,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -767,6 +784,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO4" sqref="AO4"/>
+      <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,7 +1120,7 @@
         <v>43045.423761574071</v>
       </c>
       <c r="AN1" s="15">
-        <v>43048.667488425926</v>
+        <v>43048.918611111112</v>
       </c>
       <c r="AO1" s="15"/>
       <c r="AP1" s="15"/>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -946,8 +946,8 @@
   <dimension ref="A1:AQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO10" sqref="AO10"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3963,7 +3963,7 @@
       <c r="AM28" s="19">
         <v>400</v>
       </c>
-      <c r="AN28" s="55">
+      <c r="AN28" s="19">
         <v>401</v>
       </c>
       <c r="AO28" s="8"/>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -981,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,6 +999,7 @@
     <col min="30" max="32" width="17.25" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1123,9 @@
       <c r="AN1" s="15">
         <v>43048.918611111112</v>
       </c>
-      <c r="AO1" s="15"/>
+      <c r="AO1" s="15">
+        <v>43050.563900462963</v>
+      </c>
       <c r="AP1" s="15"/>
       <c r="AQ1" s="15"/>
     </row>
@@ -5610,7 +5613,9 @@
       <c r="AN46" s="19">
         <v>200</v>
       </c>
-      <c r="AO46" s="8"/>
+      <c r="AO46" s="55">
+        <v>201</v>
+      </c>
       <c r="AP46" s="8"/>
       <c r="AQ46" s="8"/>
     </row>
@@ -7422,7 +7427,9 @@
       <c r="AN74" s="19">
         <v>2</v>
       </c>
-      <c r="AO74" s="8"/>
+      <c r="AO74" s="55">
+        <v>3</v>
+      </c>
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
@@ -7468,7 +7475,7 @@
       <c r="AK75" s="37"/>
       <c r="AL75" s="37"/>
       <c r="AM75" s="37"/>
-      <c r="AN75" s="8"/>
+      <c r="AN75" s="37"/>
       <c r="AO75" s="8"/>
       <c r="AP75" s="8"/>
       <c r="AQ75" s="8"/>
@@ -7515,7 +7522,7 @@
       <c r="AK76" s="37"/>
       <c r="AL76" s="37"/>
       <c r="AM76" s="37"/>
-      <c r="AN76" s="8"/>
+      <c r="AN76" s="37"/>
       <c r="AO76" s="8"/>
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
@@ -7562,7 +7569,7 @@
       <c r="AK77" s="37"/>
       <c r="AL77" s="37"/>
       <c r="AM77" s="37"/>
-      <c r="AN77" s="8"/>
+      <c r="AN77" s="37"/>
       <c r="AO77" s="8"/>
       <c r="AP77" s="8"/>
       <c r="AQ77" s="8"/>
@@ -7609,7 +7616,7 @@
       <c r="AK78" s="37"/>
       <c r="AL78" s="37"/>
       <c r="AM78" s="37"/>
-      <c r="AN78" s="8"/>
+      <c r="AN78" s="37"/>
       <c r="AO78" s="8"/>
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
@@ -7656,7 +7663,7 @@
       <c r="AK79" s="37"/>
       <c r="AL79" s="37"/>
       <c r="AM79" s="37"/>
-      <c r="AN79" s="8"/>
+      <c r="AN79" s="37"/>
       <c r="AO79" s="8"/>
       <c r="AP79" s="8"/>
       <c r="AQ79" s="8"/>
@@ -7703,7 +7710,7 @@
       <c r="AK80" s="37"/>
       <c r="AL80" s="37"/>
       <c r="AM80" s="37"/>
-      <c r="AN80" s="8"/>
+      <c r="AN80" s="37"/>
       <c r="AO80" s="8"/>
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
@@ -7750,7 +7757,7 @@
       <c r="AK81" s="39"/>
       <c r="AL81" s="39"/>
       <c r="AM81" s="39"/>
-      <c r="AN81" s="12"/>
+      <c r="AN81" s="39"/>
       <c r="AO81" s="12"/>
       <c r="AP81" s="12"/>
       <c r="AQ81" s="12"/>
@@ -8350,6 +8357,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -979,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
+      <selection pane="topRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3809,7 +3809,9 @@
       <c r="AN26" s="19">
         <v>403</v>
       </c>
-      <c r="AO26" s="8"/>
+      <c r="AO26" s="19">
+        <v>404</v>
+      </c>
       <c r="AP26" s="8"/>
       <c r="AQ26" s="8"/>
     </row>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -979,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1124,7 @@
         <v>43048.918611111112</v>
       </c>
       <c r="AO1" s="15">
-        <v>43050.563900462963</v>
+        <v>43051.829143518517</v>
       </c>
       <c r="AP1" s="15"/>
       <c r="AQ1" s="15"/>
@@ -5615,8 +5615,8 @@
       <c r="AN46" s="19">
         <v>200</v>
       </c>
-      <c r="AO46" s="55">
-        <v>201</v>
+      <c r="AO46" s="19">
+        <v>202</v>
       </c>
       <c r="AP46" s="8"/>
       <c r="AQ46" s="8"/>
@@ -7323,7 +7323,9 @@
       <c r="AN72" s="19">
         <v>100</v>
       </c>
-      <c r="AO72" s="8"/>
+      <c r="AO72" s="55">
+        <v>101</v>
+      </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>

--- a/电池实测2017b/多次循环电池数据整理.xlsx
+++ b/电池实测2017b/多次循环电池数据整理.xlsx
@@ -979,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO7" sqref="AO7"/>
+      <selection pane="topRight" activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5953,7 +5953,7 @@
       <c r="AN50" s="19">
         <v>700</v>
       </c>
-      <c r="AO50" s="8"/>
+      <c r="AO50" s="27"/>
       <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
     </row>
